--- a/calendarData/backup.xlsx
+++ b/calendarData/backup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mywentworth-my.sharepoint.com/personal/esguevaj_wit_edu/Documents/2SophomoreFall/2ComputerScience1050/eclipseProjects/WITAssistant/calendarData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esguevaj\OneDrive - Wentworth Institute of Technology\2SophomoreFall\2ComputerScience1050\eclipseProjects\WITAssistant\calendarData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78280F54-EED2-491D-909E-A7B0D4300445}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{78280F54-EED2-491D-909E-A7B0D4300445}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{4D0C9793-05D4-4F8A-A954-3FF691216B7F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{44DCEBB6-3FE6-434F-9AC6-AE10B586AE21}"/>
   </bookViews>
@@ -31,21 +31,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Start time</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Test6</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Description3</t>
+  </si>
+  <si>
+    <t>Description4</t>
+  </si>
+  <si>
+    <t>Description5</t>
+  </si>
+  <si>
+    <t>Description6</t>
+  </si>
+  <si>
+    <t>Description7</t>
+  </si>
+  <si>
+    <t>Description8</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Description9</t>
+  </si>
+  <si>
+    <t>Test10</t>
+  </si>
+  <si>
+    <t>Description10</t>
+  </si>
+  <si>
+    <t>Test11</t>
+  </si>
+  <si>
+    <t>Description11</t>
+  </si>
+  <si>
+    <t>Test12</t>
+  </si>
+  <si>
+    <t>Description12</t>
+  </si>
+  <si>
+    <t>Test13</t>
+  </si>
+  <si>
+    <t>Description13</t>
   </si>
 </sst>
 </file>
@@ -81,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,29 +461,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24514DDE-1BD8-4937-8628-C8F964872E83}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>20181130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20181131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20181132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.104166666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20181133</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.14583333333333301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20181134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20181135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22916666666666699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20181136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.27083333333333298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20181137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20181138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20181139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.375000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.39583333333333398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20181140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.41666666666666802</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.437500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20181141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.45833333333333498</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.47916666666666802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20181142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.500000000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.52083333333333504</v>
       </c>
     </row>
   </sheetData>
